--- a/unwanted_ambulat.xlsx
+++ b/unwanted_ambulat.xlsx
@@ -488,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -598,6 +598,11 @@
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
     </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="O2:O3"/>

--- a/unwanted_ambulat.xlsx
+++ b/unwanted_ambulat.xlsx
@@ -488,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -598,11 +598,6 @@
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B8" s="2">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="O2:O3"/>
